--- a/Cronograma - TCC.xlsx
+++ b/Cronograma - TCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\OneDrive\Área de Trabalho\⠀\DS-Etec\3° Semestre\DTCC\arquivos avulsos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2004AFE5-BEC7-4D1F-B7EC-AA64EFD07A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9100C6B8-DE2E-4CF4-857F-DA12F7E81A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E87B681D-99EC-426A-A122-954DE2A9BF76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>Tarefas</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Aseprite</t>
+  </si>
+  <si>
+    <t>fazendo</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA10B2D-ADA5-4CC7-9BBD-8B2294B5A12C}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1872,9 @@
       <c r="C41" s="13">
         <v>44668</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
@@ -1899,7 +1904,9 @@
       <c r="C44" s="13">
         <v>44675</v>
       </c>
-      <c r="D44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
@@ -2007,7 +2014,9 @@
       <c r="C55" s="13">
         <v>44664</v>
       </c>
-      <c r="D55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
@@ -2017,7 +2026,9 @@
       <c r="C56" s="13">
         <v>44668</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
@@ -2057,7 +2068,9 @@
       <c r="C60" s="13">
         <v>44675</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
@@ -2067,7 +2080,9 @@
       <c r="C61" s="13">
         <v>44682</v>
       </c>
-      <c r="D61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
@@ -2077,7 +2092,9 @@
       <c r="C62" s="13">
         <v>44682</v>
       </c>
-      <c r="D62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
@@ -2087,7 +2104,9 @@
       <c r="C63" s="13">
         <v>44689</v>
       </c>
-      <c r="D63" s="9"/>
+      <c r="D63" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
